--- a/data/trans_camb/P2A_ner_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2A_ner_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 1,96</t>
+          <t>-1,82; 2,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,05; 5,79</t>
+          <t>1,2; 5,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,51; 7,97</t>
+          <t>2,26; 7,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 2,97</t>
+          <t>-1,3; 2,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,11; 14,81</t>
+          <t>8,88; 14,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,6; 7,2</t>
+          <t>2,52; 6,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 2,02</t>
+          <t>-0,75; 1,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,2; 10,26</t>
+          <t>6,17; 10,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,32; 6,72</t>
+          <t>3,27; 6,73</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-33,26; 56,76</t>
+          <t>-35,09; 62,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,49; 167,67</t>
+          <t>20,78; 162,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>49,68; 234,59</t>
+          <t>45,75; 220,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,82; 49,84</t>
+          <t>-16,87; 47,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>113,63; 261,06</t>
+          <t>113,28; 251,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>31,42; 122,23</t>
+          <t>32,24; 115,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-13,45; 39,13</t>
+          <t>-11,62; 39,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>93,18; 196,76</t>
+          <t>97,84; 205,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>50,64; 129,86</t>
+          <t>49,31; 131,14</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 1,22</t>
+          <t>-0,54; 1,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,78; 2,93</t>
+          <t>0,96; 2,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,75; 5,57</t>
+          <t>2,88; 5,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 0,95</t>
+          <t>-1,65; 0,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,68; 6,94</t>
+          <t>3,77; 6,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,49; 22,4</t>
+          <t>2,59; 25,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 0,83</t>
+          <t>-0,72; 0,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,56; 4,5</t>
+          <t>2,65; 4,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,37; 17,8</t>
+          <t>3,31; 15,42</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-29,8; 87,42</t>
+          <t>-25,38; 87,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>28,76; 201,87</t>
+          <t>41,39; 210,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>112,3; 381,59</t>
+          <t>121,75; 402,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-38,23; 30,41</t>
+          <t>-38,03; 28,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>81,1; 221,82</t>
+          <t>84,97; 226,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>59,74; 639,55</t>
+          <t>66,28; 688,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-23,36; 36,1</t>
+          <t>-23,2; 38,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>82,16; 195,71</t>
+          <t>85,38; 202,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>114,09; 695,32</t>
+          <t>115,42; 580,49</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 3,79</t>
+          <t>-0,78; 3,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 2,82</t>
+          <t>-1,08; 2,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 3,49</t>
+          <t>-0,64; 3,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 3,8</t>
+          <t>-0,45; 3,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,09; 5,36</t>
+          <t>0,86; 5,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,45; 3,77</t>
+          <t>0,21; 3,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,01; 2,99</t>
+          <t>0,1; 3,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,46; 3,39</t>
+          <t>0,36; 3,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,44; 3,01</t>
+          <t>0,46; 3,0</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-31,37; 234,1</t>
+          <t>-27,33; 237,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-45,41; 180,91</t>
+          <t>-39,48; 174,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-18,16; 246,46</t>
+          <t>-26,01; 215,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-23,45; 475,58</t>
+          <t>-30,67; 451,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,32; 751,13</t>
+          <t>19,23; 744,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,58; 500,69</t>
+          <t>4,58; 541,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 193,85</t>
+          <t>-1,96; 196,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>15,3; 241,84</t>
+          <t>10,77; 233,82</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>13,14; 217,31</t>
+          <t>17,48; 230,93</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 1,21</t>
+          <t>-0,5; 1,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,69</t>
+          <t>0,82; 2,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,36; 4,57</t>
+          <t>2,33; 4,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 1,37</t>
+          <t>-0,65; 1,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,06; 7,63</t>
+          <t>5,24; 7,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,34; 13,65</t>
+          <t>2,26; 17,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 1,02</t>
+          <t>-0,29; 1,03</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,37; 5,03</t>
+          <t>3,38; 5,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,84; 10,78</t>
+          <t>2,69; 10,63</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-17,4; 51,84</t>
+          <t>-16,63; 48,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>29,35; 115,49</t>
+          <t>25,57; 122,24</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>72,27; 188,67</t>
+          <t>69,54; 186,25</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-13,08; 34,22</t>
+          <t>-13,14; 35,73</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>100,25; 188,48</t>
+          <t>103,46; 193,4</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>49,53; 348,97</t>
+          <t>46,5; 380,52</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 30,38</t>
+          <t>-7,71; 31,81</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>84,98; 150,63</t>
+          <t>84,5; 150,16</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>75,88; 283,19</t>
+          <t>70,4; 300,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_ner_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2A_ner_R-Estudios-trans_camb.xlsx
@@ -642,37 +642,37 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,82</t>
+          <t>11,73</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,86</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,18</t>
+          <t>8,13</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,99</t>
+          <t>0,69</t>
         </is>
       </c>
     </row>
@@ -695,37 +695,37 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,26; 7,91</t>
+          <t>-1,57; 2,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 2,74</t>
+          <t>-1,4; 2,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,88; 14,71</t>
+          <t>8,84; 14,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,52; 6,84</t>
+          <t>-1,17; 2,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 1,95</t>
+          <t>-0,79; 1,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,17; 10,16</t>
+          <t>6,16; 10,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,27; 6,73</t>
+          <t>-0,73; 2,25</t>
         </is>
       </c>
     </row>
@@ -748,37 +748,37 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>110,97%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>11,31%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>175,43%</t>
+          <t>171,89%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>72,08%</t>
+          <t>11,05%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>142,78%</t>
+          <t>140,71%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>87,14%</t>
+          <t>11,89%</t>
         </is>
       </c>
     </row>
@@ -801,37 +801,37 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>45,75; 220,61</t>
+          <t>-30,8; 79,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,87; 47,08</t>
+          <t>-18,0; 42,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>113,28; 251,02</t>
+          <t>111,66; 245,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>32,24; 115,84</t>
+          <t>-14,96; 42,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-11,62; 39,62</t>
+          <t>-12,36; 38,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>97,84; 205,38</t>
+          <t>95,68; 202,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>49,31; 131,14</t>
+          <t>-11,32; 43,84</t>
         </is>
       </c>
     </row>
@@ -848,17 +848,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,22 +873,22 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,63</t>
+          <t>9,21</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,61</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,99</t>
+          <t>5,15</t>
         </is>
       </c>
     </row>
@@ -901,17 +901,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 1,25</t>
+          <t>-0,62; 1,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,98</t>
+          <t>0,91; 2,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,88; 5,68</t>
+          <t>-0,12; 2,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,22 +926,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,59; 25,64</t>
+          <t>0,01; 37,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 0,84</t>
+          <t>-0,75; 0,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,65; 4,62</t>
+          <t>2,61; 4,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,31; 15,42</t>
+          <t>0,53; 21,97</t>
         </is>
       </c>
     </row>
@@ -954,17 +954,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,67%</t>
+          <t>13,6%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>104,74%</t>
+          <t>97,66%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>227,67%</t>
+          <t>60,05%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,22 +979,22 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>208,58%</t>
+          <t>251,76%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-0,1%</t>
+          <t>-1,33%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>132,95%</t>
+          <t>130,07%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>220,28%</t>
+          <t>187,03%</t>
         </is>
       </c>
     </row>
@@ -1007,17 +1007,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-25,38; 87,59</t>
+          <t>-27,04; 81,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>41,39; 210,98</t>
+          <t>37,64; 205,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>121,75; 402,64</t>
+          <t>-5,1; 148,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,22 +1032,22 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>66,28; 688,19</t>
+          <t>-0,34; 1068,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-23,2; 38,19</t>
+          <t>-23,49; 36,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>85,38; 202,9</t>
+          <t>81,81; 196,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>115,42; 580,49</t>
+          <t>16,53; 783,98</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>0,74</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 3,36</t>
+          <t>-1,44; 2,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,21; 3,59</t>
+          <t>-0,47; 2,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,46; 3,0</t>
+          <t>-0,54; 1,93</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>62,88%</t>
+          <t>13,98%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>137,4%</t>
+          <t>81,31%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>88,8%</t>
+          <t>38,1%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-26,01; 215,2</t>
+          <t>-44,26; 138,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,58; 541,97</t>
+          <t>-26,92; 400,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>17,48; 230,93</t>
+          <t>-20,0; 138,7</t>
         </is>
       </c>
     </row>
@@ -1280,27 +1280,27 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>6,41</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1310,17 +1310,17 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>4,14</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,46</t>
+          <t>2,99</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 1,18</t>
+          <t>-0,51; 1,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,84</t>
+          <t>0,8; 2,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,33; 4,49</t>
+          <t>-0,49; 1,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 1,44</t>
+          <t>-0,67; 1,37</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,24; 7,83</t>
+          <t>5,18; 7,78</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,26; 17,39</t>
+          <t>-0,34; 26,6</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 1,03</t>
+          <t>-0,33; 0,99</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,38; 5,02</t>
+          <t>3,35; 4,96</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,69; 10,63</t>
+          <t>-0,04; 13,95</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>65,46%</t>
+          <t>63,43%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>123,13%</t>
+          <t>16,77%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>141,59%</t>
+          <t>139,8%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>117,56%</t>
+          <t>116,73%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>114,14%</t>
+          <t>112,17%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>121,86%</t>
+          <t>80,94%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-16,63; 48,58</t>
+          <t>-16,72; 47,46</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>25,57; 122,24</t>
+          <t>24,72; 119,85</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>69,54; 186,25</t>
+          <t>-16,33; 59,45</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-13,14; 35,73</t>
+          <t>-13,22; 34,37</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>103,46; 193,4</t>
+          <t>101,41; 190,06</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>46,5; 380,52</t>
+          <t>-6,96; 589,22</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 31,81</t>
+          <t>-8,87; 30,05</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>84,5; 150,16</t>
+          <t>82,94; 146,88</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>70,4; 300,29</t>
+          <t>-1,19; 403,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_ner_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2A_ner_R-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 2,12</t>
+          <t>-1,63; 2,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,2; 5,74</t>
+          <t>1,12; 5,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 2,74</t>
+          <t>-1,56; 2,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 2,6</t>
+          <t>-1,43; 2,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,84; 14,65</t>
+          <t>8,85; 14,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 2,49</t>
+          <t>-1,13; 2,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 1,92</t>
+          <t>-0,97; 1,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,16; 10,09</t>
+          <t>6,05; 9,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 2,25</t>
+          <t>-0,77; 2,12</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-35,09; 62,2</t>
+          <t>-30,59; 62,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,78; 162,15</t>
+          <t>19,94; 160,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-30,8; 79,43</t>
+          <t>-30,83; 68,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,0; 42,9</t>
+          <t>-19,01; 46,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>111,66; 245,91</t>
+          <t>113,37; 246,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,96; 42,06</t>
+          <t>-14,67; 48,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-12,36; 38,89</t>
+          <t>-15,32; 36,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>95,68; 202,18</t>
+          <t>92,61; 192,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-11,32; 43,84</t>
+          <t>-11,82; 41,95</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 1,19</t>
+          <t>-0,75; 1,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,92</t>
+          <t>0,67; 2,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 2,3</t>
+          <t>-0,07; 2,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 0,86</t>
+          <t>-1,63; 1,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,77; 6,95</t>
+          <t>3,83; 7,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,01; 37,44</t>
+          <t>0,11; 33,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 0,82</t>
+          <t>-0,86; 0,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,61; 4,6</t>
+          <t>2,59; 4,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 21,97</t>
+          <t>0,46; 20,56</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-27,04; 81,94</t>
+          <t>-31,35; 81,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>37,64; 205,76</t>
+          <t>25,71; 200,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 148,47</t>
+          <t>-3,66; 147,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-38,03; 28,65</t>
+          <t>-37,81; 35,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>84,97; 226,92</t>
+          <t>86,27; 243,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 1068,26</t>
+          <t>0,82; 1042,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-23,49; 36,02</t>
+          <t>-26,92; 28,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>81,81; 196,54</t>
+          <t>80,45; 197,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,53; 783,98</t>
+          <t>17,13; 778,16</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 3,67</t>
+          <t>-0,64; 3,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 2,69</t>
+          <t>-1,21; 2,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 2,13</t>
+          <t>-1,38; 2,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 3,75</t>
+          <t>-0,26; 3,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,86; 5,34</t>
+          <t>0,9; 5,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 2,69</t>
+          <t>-0,35; 2,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,1; 3,13</t>
+          <t>-0,0; 3,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,3</t>
+          <t>0,3; 3,4</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 1,93</t>
+          <t>-0,49; 1,84</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-27,33; 237,21</t>
+          <t>-25,48; 241,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-39,48; 174,84</t>
+          <t>-45,89; 186,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-44,26; 138,07</t>
+          <t>-43,43; 183,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-30,67; 451,81</t>
+          <t>-22,43; 536,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,23; 744,99</t>
+          <t>25,87; 645,63</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-26,92; 400,02</t>
+          <t>-23,66; 433,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 196,09</t>
+          <t>-2,19; 209,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,77; 233,82</t>
+          <t>10,45; 233,9</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-20,0; 138,7</t>
+          <t>-20,18; 129,86</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 1,15</t>
+          <t>-0,61; 1,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,8</t>
+          <t>0,86; 2,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 1,4</t>
+          <t>-0,49; 1,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 1,37</t>
+          <t>-0,69; 1,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,18; 7,78</t>
+          <t>5,16; 7,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 26,6</t>
+          <t>-0,28; 22,02</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 0,99</t>
+          <t>-0,41; 0,98</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,35; 4,96</t>
+          <t>3,31; 4,89</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 13,95</t>
+          <t>-0,08; 12,74</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-16,72; 47,46</t>
+          <t>-18,42; 43,72</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>24,72; 119,85</t>
+          <t>25,49; 108,87</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-16,33; 59,45</t>
+          <t>-17,14; 58,13</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-13,22; 34,37</t>
+          <t>-13,57; 32,36</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>101,41; 190,06</t>
+          <t>100,61; 193,25</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 589,22</t>
+          <t>-6,27; 472,48</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 30,05</t>
+          <t>-10,6; 29,42</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>82,94; 146,88</t>
+          <t>81,13; 145,25</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 403,57</t>
+          <t>-2,71; 332,05</t>
         </is>
       </c>
     </row>
